--- a/medidascluster3.xlsx
+++ b/medidascluster3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>Var1</t>
   </si>
@@ -89,55 +89,58 @@
     <t>VL_OBSERVADO_2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Min.   :0.0000  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st Qu.:0.3040  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median :0.3970  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean   :0.4092  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3rd Qu.:0.5160  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max.   :0.8090  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st Qu.:0.4680  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median :0.6000  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean   :0.5825  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3rd Qu.:0.7080  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max.   :1.0000  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min.   :0.000e+00  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st Qu.:0.000e+00  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median :0.000e+00  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean   :3.941e-05  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3rd Qu.:0.000e+00  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max.   :3.125e-02  </t>
+    <t xml:space="preserve">Min.   :0.3230  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st Qu.:0.5040  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median :0.5620  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean   :0.5588  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd Qu.:0.6130  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max.   :0.8200  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min.   :0.0530  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st Qu.:0.4050  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median :0.5070  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean   :0.5068  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd Qu.:0.6140  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max.   :0.9550  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min.   :1.700  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st Qu.:3.100  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median :3.500  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean   :3.474  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd Qu.:3.800  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max.   :4.900  </t>
   </si>
 </sst>
 </file>
@@ -295,7 +298,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -309,7 +312,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -323,7 +326,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -337,7 +340,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -351,7 +354,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -365,7 +368,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -379,7 +382,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
@@ -393,7 +396,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
@@ -407,7 +410,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
@@ -421,7 +424,7 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -435,7 +438,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
@@ -449,7 +452,7 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
